--- a/Programmers/bin/엑셀풀이/LV2_멀리뛰기.xlsx
+++ b/Programmers/bin/엑셀풀이/LV2_멀리뛰기.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jinsu\Desktop\CodingTest\Programmers\src\엑셀풀이\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBDDF92E-CCCB-4083-88C0-295E6A2E9B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467A0E91-24BA-475C-8385-25EE140CF2F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{70AA8D22-F3EE-4985-BD7E-FBA71CB42092}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>4칸</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,6 +109,14 @@
   </si>
   <si>
     <t>answer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sol3 미리 %계산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sol4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -244,7 +252,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -264,12 +272,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
@@ -407,6 +409,94 @@
         <a:xfrm>
           <a:off x="8248650" y="11620500"/>
           <a:ext cx="7459116" cy="5611008"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>324565</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>57889</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83A1BF9D-71DB-6E9E-A192-E79694EB4F10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8248650" y="17907000"/>
+          <a:ext cx="5125165" cy="5296639"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>343618</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>162562</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8DCDCE9-DCFA-0921-03F4-673AC1BE7FA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8248650" y="24193500"/>
+          <a:ext cx="5144218" cy="4563112"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -715,10 +805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F8BEB86-C2E4-4D46-A263-7E43C4F9B7B7}">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:L138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="I71" sqref="I71"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="L139" sqref="L139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -732,7 +822,7 @@
       <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="13"/>
+      <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -741,13 +831,13 @@
       <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="14"/>
+      <c r="C3" s="12"/>
     </row>
     <row r="4" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="15">
         <v>1</v>
       </c>
     </row>
@@ -756,27 +846,27 @@
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
         <v>1</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="10">
-        <v>2</v>
-      </c>
-      <c r="C8" s="15"/>
+      <c r="B8" s="8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="13"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="17">
         <v>2</v>
       </c>
     </row>
@@ -792,10 +882,10 @@
       <c r="B12" s="6">
         <v>1</v>
       </c>
-      <c r="C12" s="7">
-        <v>1</v>
-      </c>
-      <c r="D12" s="9">
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7">
         <v>1</v>
       </c>
     </row>
@@ -803,31 +893,31 @@
       <c r="B13" s="6">
         <v>1</v>
       </c>
-      <c r="C13" s="7">
-        <v>2</v>
-      </c>
-      <c r="D13" s="9"/>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" s="6">
         <v>2</v>
       </c>
-      <c r="C14" s="7">
-        <v>1</v>
-      </c>
-      <c r="D14" s="9"/>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="18">
         <v>3</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="13">
         <f>MOD(C15,1234567)</f>
         <v>3</v>
       </c>
@@ -845,13 +935,13 @@
       <c r="B18" s="6">
         <v>1</v>
       </c>
-      <c r="C18" s="7">
-        <v>1</v>
-      </c>
-      <c r="D18" s="8">
-        <v>1</v>
-      </c>
-      <c r="E18" s="9">
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="7">
         <v>1</v>
       </c>
     </row>
@@ -859,59 +949,58 @@
       <c r="B19" s="6">
         <v>1</v>
       </c>
-      <c r="C19" s="7">
-        <v>2</v>
-      </c>
-      <c r="D19" s="8">
-        <v>1</v>
-      </c>
-      <c r="E19" s="9"/>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="6">
         <v>1</v>
       </c>
-      <c r="C20" s="7">
-        <v>1</v>
-      </c>
-      <c r="D20" s="8">
-        <v>2</v>
-      </c>
-      <c r="E20" s="9"/>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="6">
         <v>2</v>
       </c>
-      <c r="C21" s="7">
-        <v>1</v>
-      </c>
-      <c r="D21" s="8">
-        <v>1</v>
-      </c>
-      <c r="E21" s="9"/>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="7"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="6">
         <v>2</v>
       </c>
-      <c r="C22" s="7">
-        <v>2</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="9"/>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="E22" s="7"/>
     </row>
     <row r="23" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="18">
         <v>5</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="13">
         <f>MOD(C23,1234567)</f>
         <v>5</v>
       </c>
@@ -930,16 +1019,16 @@
       <c r="B28" s="6">
         <v>1</v>
       </c>
-      <c r="C28" s="7">
-        <v>1</v>
-      </c>
-      <c r="D28" s="8">
-        <v>1</v>
-      </c>
-      <c r="E28" s="8">
-        <v>1</v>
-      </c>
-      <c r="F28" s="9">
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" s="7">
         <v>1</v>
       </c>
     </row>
@@ -947,113 +1036,110 @@
       <c r="B29" s="6">
         <v>2</v>
       </c>
-      <c r="C29" s="7">
-        <v>1</v>
-      </c>
-      <c r="D29" s="8">
-        <v>1</v>
-      </c>
-      <c r="E29" s="8">
-        <v>1</v>
-      </c>
-      <c r="F29" s="9"/>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" s="7"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="6">
         <v>1</v>
       </c>
-      <c r="C30" s="7">
-        <v>2</v>
-      </c>
-      <c r="D30" s="8">
-        <v>1</v>
-      </c>
-      <c r="E30" s="8">
-        <v>1</v>
-      </c>
-      <c r="F30" s="9"/>
+      <c r="C30" s="1">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" s="7"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="6">
         <v>1</v>
       </c>
-      <c r="C31" s="7">
-        <v>1</v>
-      </c>
-      <c r="D31" s="8">
-        <v>2</v>
-      </c>
-      <c r="E31" s="8">
-        <v>1</v>
-      </c>
-      <c r="F31" s="9"/>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" s="7"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="6">
         <v>1</v>
       </c>
-      <c r="C32" s="7">
-        <v>1</v>
-      </c>
-      <c r="D32" s="8">
-        <v>1</v>
-      </c>
-      <c r="E32" s="8">
-        <v>2</v>
-      </c>
-      <c r="F32" s="9"/>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32" s="7"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B33" s="6">
         <v>2</v>
       </c>
-      <c r="C33" s="7">
-        <v>2</v>
-      </c>
-      <c r="D33" s="8">
-        <v>1</v>
-      </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="9"/>
+      <c r="C33" s="1">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="F33" s="7"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B34" s="6">
         <v>2</v>
       </c>
-      <c r="C34" s="7">
-        <v>1</v>
-      </c>
-      <c r="D34" s="8">
-        <v>2</v>
-      </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="9"/>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="F34" s="7"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B35" s="6">
         <v>1</v>
       </c>
-      <c r="C35" s="7">
-        <v>2</v>
-      </c>
-      <c r="D35" s="8">
-        <v>2</v>
-      </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="9"/>
+      <c r="C35" s="1">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="F35" s="7"/>
     </row>
     <row r="36" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="20">
+      <c r="C36" s="18">
         <v>8</v>
       </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11" t="s">
+      <c r="D36" s="9"/>
+      <c r="E36" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F36" s="12">
+      <c r="F36" s="10">
         <f>MOD(8,1234567)</f>
         <v>8</v>
       </c>
@@ -1143,6 +1229,16 @@
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L112" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="138" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L138" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Programmers/bin/엑셀풀이/LV2_멀리뛰기.xlsx
+++ b/Programmers/bin/엑셀풀이/LV2_멀리뛰기.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jinsu\Desktop\CodingTest\Programmers\src\엑셀풀이\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467A0E91-24BA-475C-8385-25EE140CF2F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D5C669-9536-4285-BFCA-B4006BE5EB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{70AA8D22-F3EE-4985-BD7E-FBA71CB42092}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{70AA8D22-F3EE-4985-BD7E-FBA71CB42092}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -331,16 +331,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>676604</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>172527</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>826</xdr:rowOff>
+      <xdr:colOff>165958</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>191326</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -363,8 +363,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6191250" y="2981325"/>
-          <a:ext cx="7716327" cy="5915851"/>
+          <a:off x="6174828" y="2956034"/>
+          <a:ext cx="7687423" cy="5919464"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -419,14 +419,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>662608</xdr:colOff>
       <xdr:row>85</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>324565</xdr:colOff>
+      <xdr:colOff>299717</xdr:colOff>
       <xdr:row>110</xdr:row>
       <xdr:rowOff>57889</xdr:rowOff>
     </xdr:to>
@@ -451,8 +451,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8248650" y="17907000"/>
-          <a:ext cx="5125165" cy="5296639"/>
+          <a:off x="8241195" y="17683370"/>
+          <a:ext cx="5136761" cy="5234519"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -497,6 +497,50 @@
         <a:xfrm>
           <a:off x="8248650" y="24193500"/>
           <a:ext cx="5144218" cy="4563112"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>229310</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>67415</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BDA5317-BF9C-2E20-DA4D-16CDED347039}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="25241250"/>
+          <a:ext cx="5087060" cy="5306165"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -807,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F8BEB86-C2E4-4D46-A263-7E43C4F9B7B7}">
   <dimension ref="A1:L138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="L139" sqref="L139"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T120" sqref="T120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
